--- a/data.xlsx
+++ b/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Passenger" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Немтырёва К.А.</t>
   </si>
@@ -48,9 +48,6 @@
     <t>dep_time</t>
   </si>
   <si>
-    <t>trav-time</t>
-  </si>
-  <si>
     <t>stations</t>
   </si>
   <si>
@@ -75,25 +72,25 @@
     <t>price</t>
   </si>
   <si>
-    <t>id_train</t>
-  </si>
-  <si>
-    <t>id_passenger</t>
-  </si>
-  <si>
     <t>Бросалина Ю.Е.</t>
   </si>
   <si>
     <t>Бросалин В.Н.</t>
   </si>
   <si>
-    <t>id</t>
+    <t>trav_time</t>
+  </si>
+  <si>
+    <t>idTrain</t>
+  </si>
+  <si>
+    <t>idPassenger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,6 +132,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -183,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,7 +218,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,101 +427,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4618999999</v>
+      </c>
+      <c r="C2">
+        <v>89778888888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>4618999999</v>
-      </c>
-      <c r="D2">
-        <v>89778888888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B3">
+        <v>4915777777</v>
+      </c>
+      <c r="C3">
+        <v>89994444444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>4915777777</v>
-      </c>
-      <c r="D3">
-        <v>89994444444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
+      <c r="B4">
+        <v>4619666666</v>
       </c>
       <c r="C4">
-        <v>4619666666</v>
-      </c>
-      <c r="D4">
         <v>89035555555</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>4915744444</v>
       </c>
       <c r="C5">
-        <v>4915744444</v>
-      </c>
-      <c r="D5">
         <v>89994451233</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>461955566</v>
       </c>
       <c r="C6">
-        <v>461955566</v>
-      </c>
-      <c r="D6">
         <v>89031111555</v>
       </c>
     </row>
@@ -532,157 +513,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>6927</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.76597222222222217</v>
+      </c>
+      <c r="E2">
+        <v>153</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
-        <v>6927</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.76597222222222217</v>
-      </c>
-      <c r="F2">
-        <v>153</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>6857</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="E3">
+        <v>180</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="D3">
-        <v>6857</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.3840277777777778</v>
-      </c>
-      <c r="F3">
-        <v>180</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>6927</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="E4">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
-        <v>6927</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.43263888888888885</v>
-      </c>
-      <c r="F4">
-        <v>105</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>6857</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.79375000000000007</v>
+      </c>
+      <c r="E5">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
-        <v>6857</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.79375000000000007</v>
-      </c>
-      <c r="F5">
-        <v>145</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>6857</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="E6">
+        <v>195</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
-      </c>
-      <c r="D6">
-        <v>6857</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.5972222222222224E-2</v>
-      </c>
-      <c r="F6">
-        <v>195</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -692,171 +655,137 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>70</v>
+      </c>
+      <c r="B3">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>70</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>60</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>60</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
+      <c r="B10">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>70</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>60</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>45</v>
-      </c>
       <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
         <v>3</v>
       </c>
     </row>
